--- a/data/trans_orig/P8_1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P8_1_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62B8C9D9-6DC3-4ED5-92DF-15EF6BF30C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{171CA479-EC4E-473E-8ED8-1655F9E9A00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{41370E1B-2057-41BD-A391-0B8907D0ECB2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2B9105DC-D464-4DB6-8268-6F1050E4277C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Población con limitación a hacer esfuerzos moderados en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>23,6%</t>
   </si>
   <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
   </si>
   <si>
     <t>41,56%</t>
@@ -89,16 +89,16 @@
     <t>38,76%</t>
   </si>
   <si>
-    <t>44,06%</t>
+    <t>44,37%</t>
   </si>
   <si>
     <t>33,66%</t>
   </si>
   <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>76,4%</t>
   </si>
   <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
   </si>
   <si>
     <t>58,44%</t>
   </si>
   <si>
-    <t>55,94%</t>
+    <t>55,63%</t>
   </si>
   <si>
     <t>61,24%</t>
@@ -125,10 +125,10 @@
     <t>66,34%</t>
   </si>
   <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>5,62%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
   </si>
   <si>
     <t>8,47%</t>
   </si>
   <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
   </si>
   <si>
     <t>94,38%</t>
   </si>
   <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>91,53%</t>
   </si>
   <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>4,91%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
   </si>
   <si>
     <t>9,04%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>95,09%</t>
   </si>
   <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
   </si>
   <si>
     <t>90,96%</t>
   </si>
   <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
   </si>
   <si>
     <t>93,17%</t>
   </si>
   <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>11,16%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
   </si>
   <si>
     <t>21,43%</t>
   </si>
   <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
   </si>
   <si>
     <t>16,37%</t>
   </si>
   <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
   </si>
   <si>
     <t>88,84%</t>
   </si>
   <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
   </si>
   <si>
     <t>78,57%</t>
   </si>
   <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
   </si>
   <si>
     <t>83,63%</t>
   </si>
   <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,430 +311,430 @@
     <t>31,72%</t>
   </si>
   <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
   </si>
   <si>
     <t>48,48%</t>
   </si>
   <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
   </si>
   <si>
     <t>41,42%</t>
   </si>
   <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
   </si>
   <si>
     <t>68,28%</t>
   </si>
   <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
   </si>
   <si>
     <t>51,52%</t>
   </si>
   <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
   </si>
   <si>
     <t>58,58%</t>
   </si>
   <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
   </si>
   <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
   </si>
   <si>
     <t>11,98%</t>
   </si>
   <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
   </si>
   <si>
     <t>9,85%</t>
   </si>
   <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>Población con limitación a hacer esfuerzos moderados en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
     <t>8,92%</t>
   </si>
   <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
   </si>
   <si>
     <t>91,08%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
   </si>
   <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>Población con limitación a hacer esfuerzos moderados en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
     <t>13,93%</t>
   </si>
   <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
   </si>
   <si>
     <t>22,65%</t>
   </si>
   <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
   </si>
   <si>
     <t>18,39%</t>
   </si>
   <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
   </si>
   <si>
     <t>86,07%</t>
   </si>
   <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
   </si>
   <si>
     <t>77,35%</t>
   </si>
   <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
   </si>
   <si>
     <t>81,61%</t>
   </si>
   <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
   </si>
   <si>
     <t>Población con limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
@@ -743,178 +743,169 @@
     <t>33,59%</t>
   </si>
   <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
   </si>
   <si>
     <t>53,84%</t>
   </si>
   <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
   </si>
   <si>
     <t>45,88%</t>
   </si>
   <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
   </si>
   <si>
     <t>66,41%</t>
   </si>
   <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
   </si>
   <si>
     <t>46,16%</t>
   </si>
   <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
   </si>
   <si>
     <t>54,12%</t>
   </si>
   <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
   </si>
   <si>
     <t>15,05%</t>
   </si>
   <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
   </si>
   <si>
     <t>14,3%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
+    <t>15,82%</t>
   </si>
   <si>
     <t>14,67%</t>
   </si>
   <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
   </si>
   <si>
     <t>84,95%</t>
   </si>
   <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
   </si>
   <si>
     <t>85,7%</t>
   </si>
   <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
+    <t>84,18%</t>
   </si>
   <si>
     <t>85,33%</t>
   </si>
   <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
   </si>
   <si>
     <t>8,63%</t>
   </si>
   <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
   </si>
   <si>
     <t>7,58%</t>
   </si>
   <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
   </si>
   <si>
     <t>91,37%</t>
   </si>
   <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
   </si>
   <si>
     <t>92,42%</t>
   </si>
   <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
   <si>
     <t>16,31%</t>
   </si>
   <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
+    <t>14,66%</t>
   </si>
   <si>
     <t>21,94%</t>
   </si>
   <si>
-    <t>19,57%</t>
+    <t>19,8%</t>
   </si>
   <si>
     <t>23,23%</t>
@@ -923,19 +914,16 @@
     <t>19,29%</t>
   </si>
   <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
   </si>
   <si>
     <t>83,69%</t>
   </si>
   <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
+    <t>85,34%</t>
   </si>
   <si>
     <t>78,06%</t>
@@ -944,16 +932,16 @@
     <t>76,77%</t>
   </si>
   <si>
-    <t>80,43%</t>
+    <t>80,2%</t>
   </si>
   <si>
     <t>80,71%</t>
   </si>
   <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206082BD-52E5-4E65-9150-256146165E2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1504B06-805A-46D7-B363-002554F8057E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2032,7 +2020,7 @@
         <v>5437</v>
       </c>
       <c r="N14" s="7">
-        <v>5565961</v>
+        <v>5565962</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2083,7 +2071,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2116,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2020E9A-69E0-47E4-9136-1FE790401CDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2219C9C-C5FF-4481-ABE9-A19FFE45D692}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2867,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B25528-B90B-41F1-BFB3-EF5F6B06FBC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18192409-4056-41A7-B17C-7D51964147F1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3146,13 +3134,13 @@
         <v>185117</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>250</v>
@@ -3161,13 +3149,13 @@
         <v>280672</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>425</v>
@@ -3176,13 +3164,13 @@
         <v>465788</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3185,13 @@
         <v>1891268</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>1658</v>
@@ -3212,13 +3200,13 @@
         <v>1707628</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>3435</v>
@@ -3227,13 +3215,13 @@
         <v>3598897</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,13 +3289,13 @@
         <v>37919</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -3316,13 +3304,13 @@
         <v>45987</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>72</v>
@@ -3331,13 +3319,13 @@
         <v>83905</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3340,13 @@
         <v>508967</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>486</v>
@@ -3367,13 +3355,13 @@
         <v>503153</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>955</v>
@@ -3382,10 +3370,10 @@
         <v>1012121</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>213</v>
@@ -3618,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D38893D-5FBA-42D2-A245-FD07A2B105C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE099C93-F03C-43C3-8348-2AE4F77CC4D5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3915,10 +3903,10 @@
         <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>836</v>
@@ -3927,13 +3915,13 @@
         <v>647030</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,28 +3936,28 @@
         <v>1836742</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>2379</v>
       </c>
       <c r="I8" s="7">
-        <v>1927770</v>
+        <v>1927771</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>264</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>4077</v>
@@ -3978,13 +3966,13 @@
         <v>3764513</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,7 +3999,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4052,13 +4040,13 @@
         <v>43471</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>104</v>
@@ -4067,13 +4055,13 @@
         <v>61630</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>161</v>
@@ -4082,13 +4070,13 @@
         <v>105101</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4091,13 @@
         <v>629568</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>900</v>
@@ -4118,13 +4106,13 @@
         <v>652256</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>1524</v>
@@ -4133,13 +4121,13 @@
         <v>1281825</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,16 +4192,16 @@
         <v>590</v>
       </c>
       <c r="D13" s="7">
-        <v>550700</v>
+        <v>550699</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>151</v>
       </c>
       <c r="H13" s="7">
         <v>1433</v>
@@ -4222,13 +4210,13 @@
         <v>833435</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>2023</v>
@@ -4237,13 +4225,13 @@
         <v>1384134</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4246,13 @@
         <v>2825995</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>159</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>3919</v>
@@ -4273,28 +4261,28 @@
         <v>2965925</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>6693</v>
       </c>
       <c r="N14" s="7">
-        <v>5791921</v>
+        <v>5791920</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,7 +4294,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4336,7 +4324,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P8_1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P8_1_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{171CA479-EC4E-473E-8ED8-1655F9E9A00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58049F37-AFBA-4B3D-A256-D39AD156754B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2B9105DC-D464-4DB6-8268-6F1050E4277C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{65682A6F-C1E3-4678-96DD-722B410513F1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Población con limitación a hacer esfuerzos moderados en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>23,6%</t>
   </si>
   <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
   </si>
   <si>
     <t>41,56%</t>
   </si>
   <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
   </si>
   <si>
     <t>33,66%</t>
   </si>
   <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>76,4%</t>
   </si>
   <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
   </si>
   <si>
     <t>58,44%</t>
   </si>
   <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
   </si>
   <si>
     <t>66,34%</t>
   </si>
   <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>5,62%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
   </si>
   <si>
     <t>8,47%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
   </si>
   <si>
     <t>94,38%</t>
   </si>
   <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
   </si>
   <si>
     <t>91,53%</t>
   </si>
   <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>4,91%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
   </si>
   <si>
     <t>9,04%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
   </si>
   <si>
     <t>95,09%</t>
   </si>
   <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
   </si>
   <si>
     <t>90,96%</t>
   </si>
   <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
   </si>
   <si>
     <t>93,17%</t>
   </si>
   <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
   </si>
   <si>
     <t>11,16%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
   </si>
   <si>
     <t>21,43%</t>
   </si>
   <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
   </si>
   <si>
     <t>16,37%</t>
   </si>
   <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
   </si>
   <si>
     <t>88,84%</t>
   </si>
   <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>78,57%</t>
   </si>
   <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
   </si>
   <si>
     <t>83,63%</t>
   </si>
   <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,616 +311,610 @@
     <t>31,72%</t>
   </si>
   <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
   </si>
   <si>
     <t>48,48%</t>
   </si>
   <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
   </si>
   <si>
     <t>41,42%</t>
   </si>
   <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
   </si>
   <si>
     <t>68,28%</t>
   </si>
   <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
   </si>
   <si>
     <t>51,52%</t>
   </si>
   <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
   </si>
   <si>
     <t>58,58%</t>
   </si>
   <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
   </si>
   <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
   </si>
   <si>
     <t>11,98%</t>
   </si>
   <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
   <si>
     <t>9,85%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>88,02%</t>
   </si>
   <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
   </si>
   <si>
     <t>90,15%</t>
   </si>
   <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
   </si>
   <si>
     <t>7,34%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
   </si>
   <si>
     <t>8,55%</t>
   </si>
   <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
+    <t>9,93%</t>
   </si>
   <si>
     <t>92,66%</t>
   </si>
   <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
   <si>
     <t>91,45%</t>
   </si>
   <si>
-    <t>88,35%</t>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
   </si>
   <si>
     <t>93,85%</t>
   </si>
   <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
     <t>14,64%</t>
   </si>
   <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
   </si>
   <si>
     <t>25,27%</t>
   </si>
   <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
   </si>
   <si>
     <t>20,06%</t>
   </si>
   <si>
-    <t>19,12%</t>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>Población con limitación a hacer esfuerzos moderados en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>Población con limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
   </si>
   <si>
     <t>21,1%</t>
   </si>
   <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
   </si>
   <si>
     <t>78,9%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>Población con limitación a hacer esfuerzos moderados en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>Población con limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
   </si>
   <si>
     <t>85,34%</t>
@@ -1353,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1504B06-805A-46D7-B363-002554F8057E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DAC455-B611-4FC2-AB60-A64D0CEECA36}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1680,7 +1674,7 @@
         <v>1554</v>
       </c>
       <c r="D8" s="7">
-        <v>1598220</v>
+        <v>1598221</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1731,7 +1725,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1990,7 +1984,7 @@
         <v>2838</v>
       </c>
       <c r="D14" s="7">
-        <v>2910780</v>
+        <v>2910779</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2041,7 +2035,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2104,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2219C9C-C5FF-4481-ABE9-A19FFE45D692}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B030B1-DE91-40E5-B165-1B125E9BE398}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2855,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18192409-4056-41A7-B17C-7D51964147F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA013C5-F2EC-48A0-BA28-67D65B9C35CE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3325,7 +3319,7 @@
         <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>109</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3334,13 @@
         <v>508967</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>486</v>
@@ -3355,13 +3349,13 @@
         <v>503153</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>955</v>
@@ -3370,13 +3364,13 @@
         <v>1012121</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>117</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3438,13 @@
         <v>470427</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>695</v>
@@ -3459,13 +3453,13 @@
         <v>800027</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>1163</v>
@@ -3474,13 +3468,13 @@
         <v>1270454</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3489,13 @@
         <v>2907191</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>2631</v>
@@ -3510,13 +3504,13 @@
         <v>2732073</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>5378</v>
@@ -3525,13 +3519,13 @@
         <v>5639264</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE099C93-F03C-43C3-8348-2AE4F77CC4D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448A1B7D-F244-4E1F-ABE4-A78EDB7F8E65}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3623,7 +3617,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3730,13 +3724,13 @@
         <v>181949</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>787</v>
@@ -3745,13 +3739,13 @@
         <v>450055</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>1026</v>
@@ -3760,13 +3754,13 @@
         <v>632003</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3775,13 @@
         <v>359685</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>640</v>
@@ -3796,13 +3790,13 @@
         <v>385898</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>1092</v>
@@ -3811,13 +3805,13 @@
         <v>745583</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,10 +3882,10 @@
         <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>542</v>
@@ -3900,13 +3894,13 @@
         <v>321750</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>110</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>836</v>
@@ -3915,13 +3909,13 @@
         <v>647030</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3930,13 @@
         <v>1836742</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>2379</v>
@@ -3951,10 +3945,10 @@
         <v>1927771</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>119</v>
@@ -3966,13 +3960,13 @@
         <v>3764513</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4034,13 @@
         <v>43471</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>104</v>
@@ -4055,13 +4049,13 @@
         <v>61630</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>161</v>
@@ -4070,13 +4064,13 @@
         <v>105101</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4085,13 @@
         <v>629568</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>900</v>
@@ -4106,13 +4100,13 @@
         <v>652256</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>46</v>
       </c>
       <c r="M11" s="7">
         <v>1524</v>
@@ -4121,13 +4115,13 @@
         <v>1281825</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4189,13 @@
         <v>550699</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>151</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>1433</v>
@@ -4210,13 +4204,13 @@
         <v>833435</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>2023</v>
@@ -4225,13 +4219,13 @@
         <v>1384134</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4240,13 @@
         <v>2825995</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>3919</v>
@@ -4261,13 +4255,13 @@
         <v>2965925</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>6693</v>
@@ -4276,13 +4270,13 @@
         <v>5791920</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
